--- a/springboot-module/ListGiay.xlsx
+++ b/springboot-module/ListGiay.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án\UIT\Mã nguồn mở\script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\QuanLyGiay_MaNguonMo\springboot-module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{900DB7EC-6701-4BA9-B6B2-3C8FD6B20FA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E0BB128E-AFA0-447E-9D41-1663C6908CAF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,12 +413,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -427,7 +426,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -435,7 +434,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -802,32 +801,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021E00A9-9A13-46C5-BA42-E179D43470BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD63"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="44.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" style="1" customWidth="1"/>
     <col min="13" max="14" width="6" style="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -874,7 +873,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -919,7 +918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -964,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1189,7 +1188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1234,7 +1233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1414,7 +1413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1459,7 +1458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1684,7 +1683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1774,7 +1773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1819,7 +1818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1909,7 +1908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1952,7 +1951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1997,7 +1996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2042,7 +2041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2132,7 +2131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2177,7 +2176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2267,7 +2266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2402,7 +2401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2672,7 +2671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2689,7 +2688,7 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2706,7 +2705,7 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2723,7 +2722,7 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
     </row>
-    <row r="45" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2740,7 +2739,7 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2757,7 +2756,7 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2774,7 +2773,7 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2791,7 +2790,7 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2808,7 +2807,7 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
     </row>
-    <row r="50" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2825,7 +2824,7 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2842,7 +2841,7 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2859,7 +2858,7 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2876,7 +2875,7 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2893,7 +2892,7 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
     </row>
-    <row r="55" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2910,7 +2909,7 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
     </row>
-    <row r="56" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2927,7 +2926,7 @@
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
     </row>
-    <row r="57" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2944,7 +2943,7 @@
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
     </row>
-    <row r="58" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2961,7 +2960,7 @@
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
     </row>
-    <row r="59" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2978,7 +2977,7 @@
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
     </row>
-    <row r="60" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2995,7 +2994,7 @@
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
     </row>
-    <row r="61" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3012,7 +3011,7 @@
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
     </row>
-    <row r="62" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3029,7 +3028,7 @@
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
     </row>
-    <row r="63" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3046,7 +3045,7 @@
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
     </row>
-    <row r="64" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3063,7 +3062,7 @@
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3082,46 +3081,46 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I41" r:id="rId1" xr:uid="{8DA8AD39-91BD-4B35-A14A-A390FDBB3AC0}"/>
-    <hyperlink ref="I40" r:id="rId2" xr:uid="{EE922D2B-A024-4C56-9A06-F21934FAF039}"/>
-    <hyperlink ref="I39" r:id="rId3" xr:uid="{0BFF49EC-BA10-495A-AA8B-9003DD0FB168}"/>
-    <hyperlink ref="I38" r:id="rId4" xr:uid="{C9E71048-26B7-4545-9EB5-C8F8B7237428}"/>
-    <hyperlink ref="I37" r:id="rId5" xr:uid="{EE69403E-89E2-49B0-B0A4-4835C2FAE60E}"/>
-    <hyperlink ref="I36" r:id="rId6" xr:uid="{4A394A1D-6311-4415-BF42-20F8F7A8DC29}"/>
-    <hyperlink ref="I35" r:id="rId7" xr:uid="{82CA4DDF-7DC6-48D5-85F0-3CDFE8639163}"/>
-    <hyperlink ref="I34" r:id="rId8" xr:uid="{9F128E3B-69D3-4A7A-B669-951A2D4A02A7}"/>
-    <hyperlink ref="I33" r:id="rId9" xr:uid="{3576ECEB-86B2-4CE3-839D-FCDED8F1FC2D}"/>
-    <hyperlink ref="I32" r:id="rId10" xr:uid="{4A551852-382B-45C8-944D-DD6BEC33056A}"/>
-    <hyperlink ref="I31" r:id="rId11" xr:uid="{50914515-5348-4AD3-BB16-43E7142D68A7}"/>
-    <hyperlink ref="I30" r:id="rId12" xr:uid="{3D84EFB9-4842-45B2-BBD4-409A33AFD5A4}"/>
-    <hyperlink ref="I29" r:id="rId13" xr:uid="{E48DBF97-616B-4EE6-8FAA-E9746B0A5689}"/>
-    <hyperlink ref="I28" r:id="rId14" xr:uid="{5FF50215-466F-4D6E-8A9E-4657A7B20D77}"/>
-    <hyperlink ref="I27" r:id="rId15" xr:uid="{146A705E-AD92-40EA-B60B-680EDC378AC1}"/>
-    <hyperlink ref="I26" r:id="rId16" xr:uid="{78BE5B1C-7885-46DD-86E7-B9394D994DF9}"/>
-    <hyperlink ref="I25" r:id="rId17" xr:uid="{CDABAF47-E990-4A0E-8738-EE0C4EE25FFB}"/>
-    <hyperlink ref="I24" r:id="rId18" xr:uid="{B03E5C6A-F52A-4FCD-BAA3-6D5E0824F1E3}"/>
-    <hyperlink ref="I23" r:id="rId19" xr:uid="{C9EB6CAA-F108-400F-8968-230F9D13A6A2}"/>
-    <hyperlink ref="I22" r:id="rId20" xr:uid="{2AEABE84-0940-4A92-A40D-2EE03A0BAF43}"/>
-    <hyperlink ref="I21" r:id="rId21" xr:uid="{9EF672E3-C91A-482E-A1E3-8001A96BEACC}"/>
-    <hyperlink ref="I20" r:id="rId22" xr:uid="{E16459CD-DCB3-4058-8FBF-6781AD2330B1}"/>
-    <hyperlink ref="I19" r:id="rId23" xr:uid="{D0E80DA2-A20D-4E36-8CB2-4238BB271145}"/>
-    <hyperlink ref="I18" r:id="rId24" xr:uid="{C15CA4F3-2D2B-4CB6-B532-B551186BD445}"/>
-    <hyperlink ref="I17" r:id="rId25" xr:uid="{A7C639B3-0D1D-4004-B3BC-B895B2656F5C}"/>
-    <hyperlink ref="I16" r:id="rId26" xr:uid="{71101A51-A462-4293-9B05-0F9B1907700B}"/>
-    <hyperlink ref="I15" r:id="rId27" xr:uid="{9ABAFB16-B443-4E10-8A0F-186719A36220}"/>
-    <hyperlink ref="I14" r:id="rId28" xr:uid="{1D40E758-BC57-4EAF-B53E-92FB1F028267}"/>
-    <hyperlink ref="I13" r:id="rId29" xr:uid="{E2A9531A-9296-4D2B-92B9-D69EF2B5E177}"/>
-    <hyperlink ref="I12" r:id="rId30" xr:uid="{9C084D8A-04CF-40B8-B24F-E69B5D3194DB}"/>
-    <hyperlink ref="I11" r:id="rId31" xr:uid="{2831C542-7000-4773-9B08-711EF17FDA94}"/>
-    <hyperlink ref="I10" r:id="rId32" xr:uid="{DF20B2D0-0228-489D-BF33-04E7263354BF}"/>
-    <hyperlink ref="I9" r:id="rId33" xr:uid="{C38D0B54-3E22-4147-B585-86607E53ECB4}"/>
-    <hyperlink ref="I8" r:id="rId34" xr:uid="{81A55C7D-EE48-4642-84FE-8BCB4D833E33}"/>
-    <hyperlink ref="I7" r:id="rId35" xr:uid="{96AA864D-EE28-4E7D-B0BF-B0B3655576ED}"/>
-    <hyperlink ref="I6" r:id="rId36" xr:uid="{A81D09E9-7B0A-4333-9575-144F6257D5E2}"/>
-    <hyperlink ref="I5" r:id="rId37" xr:uid="{88390663-B15F-4FBE-93B8-AF5DDC398787}"/>
-    <hyperlink ref="I4" r:id="rId38" xr:uid="{A3EE4A29-24FE-4CE6-98C6-96A4151980DF}"/>
-    <hyperlink ref="I3" r:id="rId39" xr:uid="{991FFBE3-0817-4343-BCE4-3D2EF91CE4D5}"/>
-    <hyperlink ref="I2" r:id="rId40" xr:uid="{123279D8-5593-46F4-8C19-675ACD1B9B54}"/>
+    <hyperlink ref="I41" r:id="rId1"/>
+    <hyperlink ref="I40" r:id="rId2"/>
+    <hyperlink ref="I39" r:id="rId3"/>
+    <hyperlink ref="I38" r:id="rId4"/>
+    <hyperlink ref="I37" r:id="rId5"/>
+    <hyperlink ref="I36" r:id="rId6"/>
+    <hyperlink ref="I35" r:id="rId7"/>
+    <hyperlink ref="I34" r:id="rId8"/>
+    <hyperlink ref="I33" r:id="rId9"/>
+    <hyperlink ref="I32" r:id="rId10"/>
+    <hyperlink ref="I31" r:id="rId11"/>
+    <hyperlink ref="I30" r:id="rId12"/>
+    <hyperlink ref="I29" r:id="rId13"/>
+    <hyperlink ref="I28" r:id="rId14"/>
+    <hyperlink ref="I27" r:id="rId15"/>
+    <hyperlink ref="I26" r:id="rId16"/>
+    <hyperlink ref="I25" r:id="rId17"/>
+    <hyperlink ref="I24" r:id="rId18"/>
+    <hyperlink ref="I23" r:id="rId19"/>
+    <hyperlink ref="I22" r:id="rId20"/>
+    <hyperlink ref="I21" r:id="rId21"/>
+    <hyperlink ref="I20" r:id="rId22"/>
+    <hyperlink ref="I19" r:id="rId23"/>
+    <hyperlink ref="I18" r:id="rId24"/>
+    <hyperlink ref="I17" r:id="rId25"/>
+    <hyperlink ref="I16" r:id="rId26"/>
+    <hyperlink ref="I15" r:id="rId27"/>
+    <hyperlink ref="I14" r:id="rId28"/>
+    <hyperlink ref="I13" r:id="rId29"/>
+    <hyperlink ref="I12" r:id="rId30"/>
+    <hyperlink ref="I11" r:id="rId31"/>
+    <hyperlink ref="I10" r:id="rId32"/>
+    <hyperlink ref="I9" r:id="rId33"/>
+    <hyperlink ref="I8" r:id="rId34"/>
+    <hyperlink ref="I7" r:id="rId35"/>
+    <hyperlink ref="I6" r:id="rId36"/>
+    <hyperlink ref="I5" r:id="rId37"/>
+    <hyperlink ref="I4" r:id="rId38"/>
+    <hyperlink ref="I3" r:id="rId39"/>
+    <hyperlink ref="I2" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId41"/>
